--- a/Data/YelpNYC/Labels_for_products.xlsx
+++ b/Data/YelpNYC/Labels_for_products.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ajay Rastogi\Desktop\Extended Version (Journal)\PeerJ\Data\YelpNYC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ajay Rastogi\Desktop\Extended Version (Journal)\Experiments\YelpNYC Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3A2F87-0C41-4368-873F-246FF2C22209}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB3C0C9-5B12-4CB6-AB98-F354C3AC8DEA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -424,15 +424,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B874"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -441,7 +444,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -465,7 +468,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -489,7 +492,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -497,7 +500,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -513,7 +516,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -521,7 +524,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -529,7 +532,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B13">
         <v>11</v>
@@ -545,7 +548,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B15">
         <v>13</v>
@@ -553,7 +556,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B16">
         <v>14</v>
@@ -561,7 +564,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B17">
         <v>15</v>
@@ -569,7 +572,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B18">
         <v>16</v>
@@ -577,7 +580,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B19">
         <v>17</v>
@@ -585,7 +588,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B20">
         <v>18</v>
@@ -593,7 +596,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B21">
         <v>19</v>
@@ -633,7 +636,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B26">
         <v>24</v>
@@ -641,7 +644,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B27">
         <v>25</v>
@@ -649,7 +652,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B28">
         <v>26</v>
@@ -657,7 +660,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B29">
         <v>27</v>
@@ -665,7 +668,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B30">
         <v>28</v>
@@ -673,7 +676,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B31">
         <v>29</v>
@@ -681,7 +684,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B32">
         <v>30</v>
@@ -697,7 +700,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B34">
         <v>32</v>
@@ -705,7 +708,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B35">
         <v>33</v>
@@ -713,7 +716,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B36">
         <v>34</v>
@@ -721,7 +724,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B37">
         <v>35</v>
@@ -729,7 +732,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B38">
         <v>36</v>
@@ -745,7 +748,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B40">
         <v>38</v>
@@ -753,7 +756,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B41">
         <v>39</v>
@@ -769,7 +772,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B43">
         <v>41</v>
@@ -785,7 +788,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B45">
         <v>43</v>
@@ -793,7 +796,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B46">
         <v>44</v>
@@ -825,7 +828,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B50">
         <v>48</v>
@@ -841,7 +844,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B52">
         <v>50</v>
@@ -849,7 +852,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B53">
         <v>51</v>
@@ -857,7 +860,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B54">
         <v>52</v>
@@ -873,7 +876,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B56">
         <v>54</v>
@@ -881,7 +884,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B57">
         <v>55</v>
@@ -897,7 +900,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B59">
         <v>57</v>
@@ -929,7 +932,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B63">
         <v>61</v>
@@ -937,7 +940,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B64">
         <v>62</v>
@@ -945,7 +948,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B65">
         <v>63</v>
@@ -953,7 +956,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B66">
         <v>64</v>
@@ -969,7 +972,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B68">
         <v>66</v>
@@ -977,7 +980,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B69">
         <v>67</v>
@@ -993,7 +996,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B71">
         <v>69</v>
@@ -1001,7 +1004,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B72">
         <v>70</v>
@@ -1009,7 +1012,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B73">
         <v>71</v>
@@ -1017,7 +1020,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B74">
         <v>72</v>
@@ -1025,7 +1028,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B75">
         <v>73</v>
@@ -1033,7 +1036,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B76">
         <v>74</v>
@@ -1057,7 +1060,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B79">
         <v>77</v>
@@ -1073,7 +1076,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B81">
         <v>79</v>
@@ -1081,7 +1084,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B82">
         <v>80</v>
@@ -1089,7 +1092,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B83">
         <v>81</v>
@@ -1097,7 +1100,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B84">
         <v>82</v>
@@ -1105,7 +1108,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B85">
         <v>83</v>
@@ -1113,7 +1116,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B86">
         <v>84</v>
@@ -1121,7 +1124,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B87">
         <v>85</v>
@@ -1129,7 +1132,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B88">
         <v>87</v>
@@ -1137,7 +1140,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B89">
         <v>88</v>
@@ -1145,7 +1148,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B90">
         <v>89</v>
@@ -1153,7 +1156,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B91">
         <v>90</v>
@@ -1161,7 +1164,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B92">
         <v>91</v>
@@ -1169,7 +1172,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B93">
         <v>92</v>
@@ -1177,7 +1180,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B94">
         <v>93</v>
@@ -1185,7 +1188,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B95">
         <v>95</v>
@@ -1193,7 +1196,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B96">
         <v>96</v>
@@ -1201,7 +1204,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B97">
         <v>97</v>
@@ -1217,7 +1220,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B99">
         <v>100</v>
@@ -1225,7 +1228,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B100">
         <v>101</v>
@@ -1233,7 +1236,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B101">
         <v>102</v>
@@ -1241,7 +1244,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B102">
         <v>103</v>
@@ -1249,7 +1252,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B103">
         <v>104</v>
@@ -1273,7 +1276,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B106">
         <v>107</v>
@@ -1281,7 +1284,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B107">
         <v>108</v>
@@ -1289,7 +1292,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B108">
         <v>109</v>
@@ -1297,7 +1300,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B109">
         <v>110</v>
@@ -1305,7 +1308,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B110">
         <v>111</v>
@@ -1329,7 +1332,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B113">
         <v>114</v>
@@ -1337,7 +1340,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B114">
         <v>115</v>
@@ -1345,7 +1348,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B115">
         <v>116</v>
@@ -1369,7 +1372,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B118">
         <v>119</v>
@@ -1385,7 +1388,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B120">
         <v>121</v>
@@ -1401,7 +1404,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B122">
         <v>123</v>
@@ -1433,7 +1436,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B126">
         <v>127</v>
@@ -1441,7 +1444,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B127">
         <v>128</v>
@@ -1449,7 +1452,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B128">
         <v>129</v>
@@ -1465,7 +1468,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B130">
         <v>131</v>
@@ -1481,7 +1484,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B132">
         <v>133</v>
@@ -1489,7 +1492,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B133">
         <v>134</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B134">
         <v>135</v>
@@ -1505,7 +1508,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B135">
         <v>136</v>
@@ -1513,7 +1516,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B136">
         <v>137</v>
@@ -1521,7 +1524,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B137">
         <v>138</v>
@@ -1529,7 +1532,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B138">
         <v>139</v>
@@ -1537,7 +1540,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B139">
         <v>140</v>
@@ -1553,7 +1556,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B141">
         <v>142</v>
@@ -1569,7 +1572,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B143">
         <v>144</v>
@@ -1585,7 +1588,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B145">
         <v>146</v>
@@ -1601,7 +1604,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B147">
         <v>149</v>
@@ -1609,7 +1612,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B148">
         <v>150</v>
@@ -1617,7 +1620,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B149">
         <v>152</v>
@@ -1633,7 +1636,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B151">
         <v>154</v>
@@ -1641,7 +1644,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B152">
         <v>155</v>
@@ -1649,7 +1652,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B153">
         <v>156</v>
@@ -1657,7 +1660,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B154">
         <v>157</v>
@@ -1681,7 +1684,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B157">
         <v>162</v>
@@ -1697,7 +1700,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B159">
         <v>164</v>
@@ -1713,7 +1716,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B161">
         <v>166</v>
@@ -1721,7 +1724,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B162">
         <v>167</v>
@@ -1737,7 +1740,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B164">
         <v>169</v>
@@ -1745,7 +1748,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B165">
         <v>170</v>
@@ -1761,7 +1764,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B167">
         <v>172</v>
@@ -1769,7 +1772,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B168">
         <v>173</v>
@@ -1785,7 +1788,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B170">
         <v>175</v>
@@ -1793,7 +1796,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B171">
         <v>176</v>
@@ -1801,7 +1804,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B172">
         <v>177</v>
@@ -1833,7 +1836,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B176">
         <v>181</v>
@@ -1841,7 +1844,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B177">
         <v>182</v>
@@ -1873,7 +1876,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B181">
         <v>186</v>
@@ -1881,7 +1884,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B182">
         <v>187</v>
@@ -1905,7 +1908,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B185">
         <v>190</v>
@@ -1913,7 +1916,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B186">
         <v>191</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B187">
         <v>192</v>
@@ -1937,7 +1940,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B189">
         <v>194</v>
@@ -1945,7 +1948,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B190">
         <v>195</v>
@@ -1961,7 +1964,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B192">
         <v>197</v>
@@ -1969,7 +1972,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B193">
         <v>198</v>
@@ -1977,7 +1980,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B194">
         <v>200</v>
@@ -1985,7 +1988,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B195">
         <v>201</v>
@@ -1993,7 +1996,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B196">
         <v>202</v>
@@ -2001,7 +2004,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B197">
         <v>203</v>
@@ -2009,7 +2012,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B198">
         <v>204</v>
@@ -2017,7 +2020,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B199">
         <v>205</v>
@@ -2025,7 +2028,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B200">
         <v>206</v>
@@ -2033,7 +2036,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B201">
         <v>207</v>
@@ -2049,7 +2052,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B203">
         <v>209</v>
@@ -2057,7 +2060,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B204">
         <v>211</v>
@@ -2065,7 +2068,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B205">
         <v>212</v>
@@ -2073,7 +2076,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B206">
         <v>213</v>
@@ -2081,7 +2084,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B207">
         <v>214</v>
@@ -2089,7 +2092,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B208">
         <v>215</v>
@@ -2113,7 +2116,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B211">
         <v>219</v>
@@ -2121,7 +2124,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B212">
         <v>220</v>
@@ -2129,7 +2132,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B213">
         <v>221</v>
@@ -2137,7 +2140,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B214">
         <v>222</v>
@@ -2145,7 +2148,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B215">
         <v>223</v>
@@ -2153,7 +2156,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B216">
         <v>224</v>
@@ -2185,7 +2188,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B220">
         <v>228</v>
@@ -2201,7 +2204,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B222">
         <v>230</v>
@@ -2209,7 +2212,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B223">
         <v>231</v>
@@ -2217,7 +2220,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B224">
         <v>234</v>
@@ -2225,7 +2228,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B225">
         <v>235</v>
@@ -2233,7 +2236,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B226">
         <v>236</v>
@@ -2241,7 +2244,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B227">
         <v>237</v>
@@ -2257,7 +2260,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B229">
         <v>239</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B230">
         <v>240</v>
@@ -2281,7 +2284,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B232">
         <v>243</v>
@@ -2289,7 +2292,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B233">
         <v>244</v>
@@ -2297,7 +2300,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B234">
         <v>245</v>
@@ -2313,7 +2316,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B236">
         <v>247</v>
@@ -2337,7 +2340,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B239">
         <v>250</v>
@@ -2345,7 +2348,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B240">
         <v>251</v>
@@ -2353,7 +2356,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B241">
         <v>252</v>
@@ -2361,7 +2364,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B242">
         <v>253</v>
@@ -2377,7 +2380,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B244">
         <v>255</v>
@@ -2385,7 +2388,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B245">
         <v>256</v>
@@ -2393,7 +2396,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B246">
         <v>257</v>
@@ -2401,7 +2404,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B247">
         <v>258</v>
@@ -2409,7 +2412,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B248">
         <v>259</v>
@@ -2417,7 +2420,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B249">
         <v>260</v>
@@ -2425,7 +2428,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B250">
         <v>261</v>
@@ -2433,7 +2436,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B251">
         <v>262</v>
@@ -2441,7 +2444,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B252">
         <v>263</v>
@@ -2449,7 +2452,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B253">
         <v>264</v>
@@ -2465,7 +2468,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B255">
         <v>266</v>
@@ -2473,7 +2476,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B256">
         <v>267</v>
@@ -2481,7 +2484,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B257">
         <v>268</v>
@@ -2497,7 +2500,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B259">
         <v>270</v>
@@ -2505,7 +2508,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B260">
         <v>271</v>
@@ -2513,7 +2516,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B261">
         <v>272</v>
@@ -2521,7 +2524,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B262">
         <v>273</v>
@@ -2537,7 +2540,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B264">
         <v>275</v>
@@ -2553,7 +2556,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B266">
         <v>277</v>
@@ -2561,7 +2564,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B267">
         <v>278</v>
@@ -2569,7 +2572,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B268">
         <v>279</v>
@@ -2593,7 +2596,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B271">
         <v>282</v>
@@ -2601,7 +2604,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B272">
         <v>283</v>
@@ -2609,7 +2612,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B273">
         <v>284</v>
@@ -2617,7 +2620,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B274">
         <v>285</v>
@@ -2625,7 +2628,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B275">
         <v>286</v>
@@ -2633,7 +2636,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B276">
         <v>287</v>
@@ -2649,7 +2652,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B278">
         <v>289</v>
@@ -2665,7 +2668,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B280">
         <v>291</v>
@@ -2673,7 +2676,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B281">
         <v>292</v>
@@ -2681,7 +2684,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B282">
         <v>294</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B283">
         <v>295</v>
@@ -2697,7 +2700,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B284">
         <v>296</v>
@@ -2721,7 +2724,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B287">
         <v>299</v>
@@ -2737,7 +2740,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B289">
         <v>301</v>
@@ -2745,7 +2748,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B290">
         <v>302</v>
@@ -2777,7 +2780,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B294">
         <v>306</v>
@@ -2793,7 +2796,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B296">
         <v>308</v>
@@ -2801,7 +2804,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B297">
         <v>309</v>
@@ -2817,7 +2820,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B299">
         <v>312</v>
@@ -2825,7 +2828,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B300">
         <v>313</v>
@@ -2833,7 +2836,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B301">
         <v>314</v>
@@ -2841,7 +2844,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B302">
         <v>315</v>
@@ -2849,7 +2852,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B303">
         <v>316</v>
@@ -2857,7 +2860,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B304">
         <v>317</v>
@@ -2873,7 +2876,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B306">
         <v>319</v>
@@ -2881,7 +2884,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B307">
         <v>320</v>
@@ -2889,7 +2892,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B308">
         <v>321</v>
@@ -2905,7 +2908,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B310">
         <v>323</v>
@@ -2913,7 +2916,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B311">
         <v>324</v>
@@ -2937,7 +2940,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B314">
         <v>328</v>
@@ -2945,7 +2948,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B315">
         <v>330</v>
@@ -2953,7 +2956,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B316">
         <v>331</v>
@@ -2961,7 +2964,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B317">
         <v>332</v>
@@ -2969,7 +2972,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B318">
         <v>333</v>
@@ -2977,7 +2980,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B319">
         <v>334</v>
@@ -2985,7 +2988,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B320">
         <v>335</v>
@@ -2993,7 +2996,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B321">
         <v>336</v>
@@ -3009,7 +3012,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B323">
         <v>338</v>
@@ -3017,7 +3020,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B324">
         <v>339</v>
@@ -3025,7 +3028,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B325">
         <v>341</v>
@@ -3041,7 +3044,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B327">
         <v>343</v>
@@ -3049,7 +3052,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B328">
         <v>345</v>
@@ -3057,7 +3060,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B329">
         <v>346</v>
@@ -3073,7 +3076,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B331">
         <v>348</v>
@@ -3089,7 +3092,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B333">
         <v>350</v>
@@ -3097,7 +3100,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B334">
         <v>351</v>
@@ -3105,7 +3108,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B335">
         <v>352</v>
@@ -3113,7 +3116,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B336">
         <v>353</v>
@@ -3137,7 +3140,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B339">
         <v>356</v>
@@ -3145,7 +3148,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B340">
         <v>358</v>
@@ -3153,7 +3156,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B341">
         <v>359</v>
@@ -3161,7 +3164,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B342">
         <v>360</v>
@@ -3169,7 +3172,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B343">
         <v>361</v>
@@ -3177,7 +3180,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B344">
         <v>362</v>
@@ -3193,7 +3196,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B346">
         <v>364</v>
@@ -3209,7 +3212,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B348">
         <v>366</v>
@@ -3241,7 +3244,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B352">
         <v>370</v>
@@ -3249,7 +3252,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B353">
         <v>371</v>
@@ -3265,7 +3268,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B355">
         <v>373</v>
@@ -3273,7 +3276,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B356">
         <v>374</v>
@@ -3281,7 +3284,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B357">
         <v>375</v>
@@ -3289,7 +3292,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B358">
         <v>376</v>
@@ -3297,7 +3300,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B359">
         <v>377</v>
@@ -3305,7 +3308,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B360">
         <v>378</v>
@@ -3313,7 +3316,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B361">
         <v>379</v>
@@ -3321,7 +3324,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B362">
         <v>380</v>
@@ -3337,7 +3340,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B364">
         <v>382</v>
@@ -3345,7 +3348,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B365">
         <v>383</v>
@@ -3361,7 +3364,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B367">
         <v>386</v>
@@ -3369,7 +3372,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B368">
         <v>387</v>
@@ -3377,7 +3380,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B369">
         <v>388</v>
@@ -3393,7 +3396,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B371">
         <v>391</v>
@@ -3409,7 +3412,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B373">
         <v>393</v>
@@ -3425,7 +3428,7 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B375">
         <v>396</v>
@@ -3441,7 +3444,7 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B377">
         <v>398</v>
@@ -3449,7 +3452,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B378">
         <v>399</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B379">
         <v>400</v>
@@ -3465,7 +3468,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B380">
         <v>401</v>
@@ -3473,7 +3476,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B381">
         <v>402</v>
@@ -3489,7 +3492,7 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B383">
         <v>404</v>
@@ -3513,7 +3516,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B386">
         <v>407</v>
@@ -3529,7 +3532,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B388">
         <v>409</v>
@@ -3537,7 +3540,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B389">
         <v>410</v>
@@ -3553,7 +3556,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B391">
         <v>412</v>
@@ -3561,7 +3564,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B392">
         <v>413</v>
@@ -3569,7 +3572,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B393">
         <v>414</v>
@@ -3585,7 +3588,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B395">
         <v>416</v>
@@ -3601,7 +3604,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B397">
         <v>418</v>
@@ -3609,7 +3612,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B398">
         <v>419</v>
@@ -3625,7 +3628,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B400">
         <v>421</v>
@@ -3633,7 +3636,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B401">
         <v>422</v>
@@ -3641,7 +3644,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B402">
         <v>423</v>
@@ -3649,7 +3652,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B403">
         <v>424</v>
@@ -3697,7 +3700,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B409">
         <v>431</v>
@@ -3713,7 +3716,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B411">
         <v>433</v>
@@ -3729,7 +3732,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B413">
         <v>435</v>
@@ -3737,7 +3740,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B414">
         <v>436</v>
@@ -3753,7 +3756,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B416">
         <v>438</v>
@@ -3761,7 +3764,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B417">
         <v>439</v>
@@ -3769,7 +3772,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B418">
         <v>440</v>
@@ -3785,7 +3788,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B420">
         <v>442</v>
@@ -3793,7 +3796,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B421">
         <v>444</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B422">
         <v>445</v>
@@ -3809,7 +3812,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B423">
         <v>446</v>
@@ -3817,7 +3820,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B424">
         <v>447</v>
@@ -3825,7 +3828,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B425">
         <v>448</v>
@@ -3833,7 +3836,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B426">
         <v>449</v>
@@ -3841,7 +3844,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B427">
         <v>450</v>
@@ -3849,7 +3852,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B428">
         <v>451</v>
@@ -3857,7 +3860,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B429">
         <v>452</v>
@@ -3865,7 +3868,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B430">
         <v>453</v>
@@ -3873,7 +3876,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B431">
         <v>454</v>
@@ -3897,7 +3900,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B434">
         <v>457</v>
@@ -3905,7 +3908,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B435">
         <v>458</v>
@@ -3929,7 +3932,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B438">
         <v>462</v>
@@ -3937,7 +3940,7 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B439">
         <v>463</v>
@@ -3945,7 +3948,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B440">
         <v>464</v>
@@ -3961,7 +3964,7 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B442">
         <v>466</v>
@@ -3969,7 +3972,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B443">
         <v>467</v>
@@ -3977,7 +3980,7 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B444">
         <v>468</v>
@@ -3993,7 +3996,7 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B446">
         <v>470</v>
@@ -4001,7 +4004,7 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B447">
         <v>471</v>
@@ -4009,7 +4012,7 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B448">
         <v>472</v>
@@ -4017,7 +4020,7 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B449">
         <v>473</v>
@@ -4025,7 +4028,7 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B450">
         <v>474</v>
@@ -4033,7 +4036,7 @@
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B451">
         <v>475</v>
@@ -4041,7 +4044,7 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B452">
         <v>476</v>
@@ -4049,7 +4052,7 @@
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B453">
         <v>477</v>
@@ -4057,7 +4060,7 @@
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B454">
         <v>478</v>
@@ -4065,7 +4068,7 @@
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B455">
         <v>479</v>
@@ -4073,7 +4076,7 @@
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B456">
         <v>480</v>
@@ -4089,7 +4092,7 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B458">
         <v>482</v>
@@ -4097,7 +4100,7 @@
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B459">
         <v>483</v>
@@ -4105,7 +4108,7 @@
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B460">
         <v>484</v>
@@ -4121,7 +4124,7 @@
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B462">
         <v>486</v>
@@ -4129,7 +4132,7 @@
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B463">
         <v>488</v>
@@ -4137,7 +4140,7 @@
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B464">
         <v>489</v>
@@ -4145,7 +4148,7 @@
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B465">
         <v>490</v>
@@ -4153,7 +4156,7 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B466">
         <v>491</v>
@@ -4161,7 +4164,7 @@
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B467">
         <v>492</v>
@@ -4169,7 +4172,7 @@
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B468">
         <v>493</v>
@@ -4185,7 +4188,7 @@
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B470">
         <v>495</v>
@@ -4193,7 +4196,7 @@
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B471">
         <v>496</v>
@@ -4201,7 +4204,7 @@
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B472">
         <v>497</v>
@@ -4209,7 +4212,7 @@
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B473">
         <v>498</v>
@@ -4217,7 +4220,7 @@
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B474">
         <v>499</v>
@@ -4233,7 +4236,7 @@
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B476">
         <v>501</v>
@@ -4241,7 +4244,7 @@
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B477">
         <v>502</v>
@@ -4265,7 +4268,7 @@
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B480">
         <v>507</v>
@@ -4273,7 +4276,7 @@
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B481">
         <v>508</v>
@@ -4281,7 +4284,7 @@
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B482">
         <v>509</v>
@@ -4289,7 +4292,7 @@
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B483">
         <v>510</v>
@@ -4305,7 +4308,7 @@
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B485">
         <v>512</v>
@@ -4321,7 +4324,7 @@
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B487">
         <v>514</v>
@@ -4329,7 +4332,7 @@
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B488">
         <v>515</v>
@@ -4337,7 +4340,7 @@
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B489">
         <v>516</v>
@@ -4345,7 +4348,7 @@
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B490">
         <v>517</v>
@@ -4353,7 +4356,7 @@
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B491">
         <v>518</v>
@@ -4361,7 +4364,7 @@
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B492">
         <v>519</v>
@@ -4369,7 +4372,7 @@
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B493">
         <v>520</v>
@@ -4393,7 +4396,7 @@
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B496">
         <v>523</v>
@@ -4401,7 +4404,7 @@
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B497">
         <v>524</v>
@@ -4409,7 +4412,7 @@
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B498">
         <v>525</v>
@@ -4417,7 +4420,7 @@
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B499">
         <v>526</v>
@@ -4425,7 +4428,7 @@
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B500">
         <v>527</v>
@@ -4433,7 +4436,7 @@
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B501">
         <v>528</v>
@@ -4441,7 +4444,7 @@
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B502">
         <v>529</v>
@@ -4465,7 +4468,7 @@
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B505">
         <v>533</v>
@@ -4489,7 +4492,7 @@
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B508">
         <v>536</v>
@@ -4497,7 +4500,7 @@
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B509">
         <v>537</v>
@@ -4513,7 +4516,7 @@
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B511">
         <v>539</v>
@@ -4521,7 +4524,7 @@
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B512">
         <v>540</v>
@@ -4553,7 +4556,7 @@
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A516">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B516">
         <v>544</v>
@@ -4561,7 +4564,7 @@
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A517">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B517">
         <v>545</v>
@@ -4577,7 +4580,7 @@
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A519">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B519">
         <v>548</v>
@@ -4585,7 +4588,7 @@
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A520">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B520">
         <v>549</v>
@@ -4593,7 +4596,7 @@
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A521">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B521">
         <v>550</v>
@@ -4601,7 +4604,7 @@
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A522">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B522">
         <v>551</v>
@@ -4609,7 +4612,7 @@
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A523">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B523">
         <v>552</v>
@@ -4625,7 +4628,7 @@
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A525">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B525">
         <v>555</v>
@@ -4633,7 +4636,7 @@
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A526">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B526">
         <v>556</v>
@@ -4649,7 +4652,7 @@
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A528">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B528">
         <v>558</v>
@@ -4665,7 +4668,7 @@
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A530">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B530">
         <v>560</v>
@@ -4673,7 +4676,7 @@
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A531">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B531">
         <v>561</v>
@@ -4697,7 +4700,7 @@
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A534">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B534">
         <v>564</v>
@@ -4705,7 +4708,7 @@
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A535">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B535">
         <v>566</v>
@@ -4713,7 +4716,7 @@
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A536">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B536">
         <v>567</v>
@@ -4737,7 +4740,7 @@
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A539">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B539">
         <v>570</v>
@@ -4761,7 +4764,7 @@
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A542">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B542">
         <v>573</v>
@@ -4777,7 +4780,7 @@
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A544">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B544">
         <v>575</v>
@@ -4785,7 +4788,7 @@
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A545">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B545">
         <v>576</v>
@@ -4793,7 +4796,7 @@
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A546">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B546">
         <v>577</v>
@@ -4809,7 +4812,7 @@
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A548">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B548">
         <v>579</v>
@@ -4817,7 +4820,7 @@
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A549">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B549">
         <v>580</v>
@@ -4825,7 +4828,7 @@
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A550">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B550">
         <v>582</v>
@@ -4849,7 +4852,7 @@
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A553">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B553">
         <v>585</v>
@@ -4865,7 +4868,7 @@
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A555">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B555">
         <v>587</v>
@@ -4881,7 +4884,7 @@
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A557">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B557">
         <v>589</v>
@@ -4889,7 +4892,7 @@
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A558">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B558">
         <v>590</v>
@@ -4921,7 +4924,7 @@
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A562">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B562">
         <v>594</v>
@@ -4937,7 +4940,7 @@
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A564">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B564">
         <v>596</v>
@@ -4961,7 +4964,7 @@
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A567">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B567">
         <v>599</v>
@@ -4969,7 +4972,7 @@
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A568">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B568">
         <v>600</v>
@@ -4977,7 +4980,7 @@
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A569">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B569">
         <v>601</v>
@@ -4985,7 +4988,7 @@
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A570">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B570">
         <v>602</v>
@@ -4993,7 +4996,7 @@
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A571">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B571">
         <v>603</v>
@@ -5001,7 +5004,7 @@
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A572">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B572">
         <v>604</v>
@@ -5009,7 +5012,7 @@
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A573">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B573">
         <v>605</v>
@@ -5017,7 +5020,7 @@
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A574">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B574">
         <v>606</v>
@@ -5025,7 +5028,7 @@
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A575">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B575">
         <v>607</v>
@@ -5033,7 +5036,7 @@
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A576">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B576">
         <v>608</v>
@@ -5041,7 +5044,7 @@
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A577">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B577">
         <v>609</v>
@@ -5057,7 +5060,7 @@
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A579">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B579">
         <v>611</v>
@@ -5065,7 +5068,7 @@
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A580">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B580">
         <v>612</v>
@@ -5073,7 +5076,7 @@
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A581">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B581">
         <v>613</v>
@@ -5097,7 +5100,7 @@
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A584">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B584">
         <v>617</v>
@@ -5105,7 +5108,7 @@
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A585">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B585">
         <v>618</v>
@@ -5121,7 +5124,7 @@
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A587">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B587">
         <v>620</v>
@@ -5137,7 +5140,7 @@
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A589">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B589">
         <v>622</v>
@@ -5153,7 +5156,7 @@
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A591">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B591">
         <v>624</v>
@@ -5161,7 +5164,7 @@
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A592">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B592">
         <v>625</v>
@@ -5169,7 +5172,7 @@
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A593">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B593">
         <v>627</v>
@@ -5177,7 +5180,7 @@
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A594">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B594">
         <v>628</v>
@@ -5185,7 +5188,7 @@
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A595">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B595">
         <v>629</v>
@@ -5193,7 +5196,7 @@
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A596">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B596">
         <v>630</v>
@@ -5201,7 +5204,7 @@
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A597">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B597">
         <v>631</v>
@@ -5217,7 +5220,7 @@
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A599">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B599">
         <v>633</v>
@@ -5225,7 +5228,7 @@
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A600">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B600">
         <v>634</v>
@@ -5249,7 +5252,7 @@
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A603">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B603">
         <v>637</v>
@@ -5265,7 +5268,7 @@
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A605">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B605">
         <v>639</v>
@@ -5281,7 +5284,7 @@
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A607">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B607">
         <v>641</v>
@@ -5305,7 +5308,7 @@
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A610">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B610">
         <v>644</v>
@@ -5337,7 +5340,7 @@
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A614">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B614">
         <v>648</v>
@@ -5353,7 +5356,7 @@
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A616">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B616">
         <v>650</v>
@@ -5361,7 +5364,7 @@
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A617">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B617">
         <v>651</v>
@@ -5377,7 +5380,7 @@
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A619">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B619">
         <v>653</v>
@@ -5385,7 +5388,7 @@
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A620">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B620">
         <v>654</v>
@@ -5393,7 +5396,7 @@
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A621">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B621">
         <v>655</v>
@@ -5401,7 +5404,7 @@
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A622">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B622">
         <v>656</v>
@@ -5425,7 +5428,7 @@
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A625">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B625">
         <v>659</v>
@@ -5441,7 +5444,7 @@
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A627">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B627">
         <v>661</v>
@@ -5449,7 +5452,7 @@
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A628">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B628">
         <v>662</v>
@@ -5457,7 +5460,7 @@
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A629">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B629">
         <v>663</v>
@@ -5465,7 +5468,7 @@
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A630">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B630">
         <v>664</v>
@@ -5473,7 +5476,7 @@
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A631">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B631">
         <v>665</v>
@@ -5481,7 +5484,7 @@
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A632">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B632">
         <v>666</v>
@@ -5497,7 +5500,7 @@
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A634">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B634">
         <v>668</v>
@@ -5505,7 +5508,7 @@
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A635">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B635">
         <v>669</v>
@@ -5521,7 +5524,7 @@
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A637">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B637">
         <v>671</v>
@@ -5529,7 +5532,7 @@
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A638">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B638">
         <v>672</v>
@@ -5537,7 +5540,7 @@
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A639">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B639">
         <v>673</v>
@@ -5545,7 +5548,7 @@
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A640">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B640">
         <v>674</v>
@@ -5553,7 +5556,7 @@
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A641">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B641">
         <v>675</v>
@@ -5561,7 +5564,7 @@
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A642">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B642">
         <v>676</v>
@@ -5569,7 +5572,7 @@
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A643">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B643">
         <v>677</v>
@@ -5577,7 +5580,7 @@
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A644">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B644">
         <v>678</v>
@@ -5593,7 +5596,7 @@
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A646">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B646">
         <v>680</v>
@@ -5617,7 +5620,7 @@
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A649">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B649">
         <v>684</v>
@@ -5625,7 +5628,7 @@
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A650">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B650">
         <v>685</v>
@@ -5633,7 +5636,7 @@
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A651">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B651">
         <v>686</v>
@@ -5641,7 +5644,7 @@
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A652">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B652">
         <v>688</v>
@@ -5649,7 +5652,7 @@
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A653">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B653">
         <v>689</v>
@@ -5657,7 +5660,7 @@
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A654">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B654">
         <v>690</v>
@@ -5665,7 +5668,7 @@
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A655">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B655">
         <v>691</v>
@@ -5673,7 +5676,7 @@
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A656">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B656">
         <v>692</v>
@@ -5697,7 +5700,7 @@
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A659">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B659">
         <v>696</v>
@@ -5705,7 +5708,7 @@
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A660">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B660">
         <v>697</v>
@@ -5721,7 +5724,7 @@
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A662">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B662">
         <v>699</v>
@@ -5729,7 +5732,7 @@
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A663">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B663">
         <v>700</v>
@@ -5737,7 +5740,7 @@
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A664">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B664">
         <v>701</v>
@@ -5761,7 +5764,7 @@
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A667">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B667">
         <v>704</v>
@@ -5769,7 +5772,7 @@
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A668">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B668">
         <v>706</v>
@@ -5785,7 +5788,7 @@
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A670">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B670">
         <v>708</v>
@@ -5793,7 +5796,7 @@
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A671">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B671">
         <v>709</v>
@@ -5801,7 +5804,7 @@
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A672">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B672">
         <v>710</v>
@@ -5809,7 +5812,7 @@
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A673">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B673">
         <v>711</v>
@@ -5825,7 +5828,7 @@
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A675">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B675">
         <v>713</v>
@@ -5833,7 +5836,7 @@
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A676">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B676">
         <v>714</v>
@@ -5857,7 +5860,7 @@
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A679">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B679">
         <v>717</v>
@@ -5873,7 +5876,7 @@
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A681">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B681">
         <v>719</v>
@@ -5897,7 +5900,7 @@
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A684">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B684">
         <v>722</v>
@@ -5905,7 +5908,7 @@
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A685">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B685">
         <v>723</v>
@@ -5913,7 +5916,7 @@
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A686">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B686">
         <v>724</v>
@@ -5921,7 +5924,7 @@
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A687">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B687">
         <v>725</v>
@@ -5929,7 +5932,7 @@
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A688">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B688">
         <v>726</v>
@@ -5937,7 +5940,7 @@
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A689">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B689">
         <v>727</v>
@@ -5953,7 +5956,7 @@
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A691">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B691">
         <v>730</v>
@@ -5961,7 +5964,7 @@
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A692">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B692">
         <v>731</v>
@@ -5985,7 +5988,7 @@
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A695">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B695">
         <v>735</v>
@@ -5993,7 +5996,7 @@
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A696">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B696">
         <v>736</v>
@@ -6009,7 +6012,7 @@
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A698">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B698">
         <v>738</v>
@@ -6017,7 +6020,7 @@
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A699">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B699">
         <v>739</v>
@@ -6025,7 +6028,7 @@
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A700">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B700">
         <v>740</v>
@@ -6033,7 +6036,7 @@
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A701">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B701">
         <v>741</v>
@@ -6041,7 +6044,7 @@
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A702">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B702">
         <v>742</v>
@@ -6049,7 +6052,7 @@
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A703">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B703">
         <v>743</v>
@@ -6057,7 +6060,7 @@
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A704">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B704">
         <v>744</v>
@@ -6065,7 +6068,7 @@
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A705">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B705">
         <v>745</v>
@@ -6097,7 +6100,7 @@
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A709">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B709">
         <v>749</v>
@@ -6105,7 +6108,7 @@
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A710">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B710">
         <v>750</v>
@@ -6113,7 +6116,7 @@
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A711">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B711">
         <v>752</v>
@@ -6121,7 +6124,7 @@
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A712">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B712">
         <v>753</v>
@@ -6137,7 +6140,7 @@
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A714">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B714">
         <v>755</v>
@@ -6145,7 +6148,7 @@
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A715">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B715">
         <v>756</v>
@@ -6153,7 +6156,7 @@
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A716">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B716">
         <v>757</v>
@@ -6161,7 +6164,7 @@
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A717">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B717">
         <v>758</v>
@@ -6169,7 +6172,7 @@
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A718">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B718">
         <v>759</v>
@@ -6177,7 +6180,7 @@
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A719">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B719">
         <v>760</v>
@@ -6185,7 +6188,7 @@
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A720">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B720">
         <v>761</v>
@@ -6201,7 +6204,7 @@
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A722">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B722">
         <v>763</v>
@@ -6209,7 +6212,7 @@
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A723">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B723">
         <v>764</v>
@@ -6217,7 +6220,7 @@
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A724">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B724">
         <v>765</v>
@@ -6225,7 +6228,7 @@
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A725">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B725">
         <v>766</v>
@@ -6233,7 +6236,7 @@
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A726">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B726">
         <v>767</v>
@@ -6241,7 +6244,7 @@
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A727">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B727">
         <v>768</v>
@@ -6249,7 +6252,7 @@
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A728">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B728">
         <v>769</v>
@@ -6265,7 +6268,7 @@
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A730">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B730">
         <v>771</v>
@@ -6273,7 +6276,7 @@
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A731">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B731">
         <v>772</v>
@@ -6281,7 +6284,7 @@
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A732">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B732">
         <v>773</v>
@@ -6289,7 +6292,7 @@
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A733">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B733">
         <v>774</v>
@@ -6305,7 +6308,7 @@
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A735">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B735">
         <v>776</v>
@@ -6313,7 +6316,7 @@
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A736">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B736">
         <v>777</v>
@@ -6321,7 +6324,7 @@
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A737">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B737">
         <v>778</v>
@@ -6329,7 +6332,7 @@
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A738">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B738">
         <v>779</v>
@@ -6337,7 +6340,7 @@
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A739">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B739">
         <v>780</v>
@@ -6345,7 +6348,7 @@
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A740">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B740">
         <v>781</v>
@@ -6361,7 +6364,7 @@
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A742">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B742">
         <v>783</v>
@@ -6377,7 +6380,7 @@
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A744">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B744">
         <v>785</v>
@@ -6393,7 +6396,7 @@
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A746">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B746">
         <v>788</v>
@@ -6401,7 +6404,7 @@
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A747">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B747">
         <v>790</v>
@@ -6409,7 +6412,7 @@
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A748">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B748">
         <v>791</v>
@@ -6417,7 +6420,7 @@
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A749">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B749">
         <v>792</v>
@@ -6441,7 +6444,7 @@
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A752">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B752">
         <v>795</v>
@@ -6449,7 +6452,7 @@
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A753">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B753">
         <v>796</v>
@@ -6457,7 +6460,7 @@
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A754">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B754">
         <v>797</v>
@@ -6465,7 +6468,7 @@
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A755">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B755">
         <v>798</v>
@@ -6473,7 +6476,7 @@
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A756">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B756">
         <v>799</v>
@@ -6529,7 +6532,7 @@
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A763">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B763">
         <v>807</v>
@@ -6537,7 +6540,7 @@
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A764">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B764">
         <v>808</v>
@@ -6553,7 +6556,7 @@
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A766">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B766">
         <v>810</v>
@@ -6561,7 +6564,7 @@
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A767">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B767">
         <v>811</v>
@@ -6577,7 +6580,7 @@
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A769">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B769">
         <v>813</v>
@@ -6585,7 +6588,7 @@
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A770">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B770">
         <v>814</v>
@@ -6593,7 +6596,7 @@
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A771">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B771">
         <v>815</v>
@@ -6617,7 +6620,7 @@
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A774">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B774">
         <v>818</v>
@@ -6625,7 +6628,7 @@
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A775">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B775">
         <v>819</v>
@@ -6633,7 +6636,7 @@
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A776">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B776">
         <v>820</v>
@@ -6649,7 +6652,7 @@
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A778">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B778">
         <v>822</v>
@@ -6657,7 +6660,7 @@
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A779">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B779">
         <v>823</v>
@@ -6665,7 +6668,7 @@
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A780">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B780">
         <v>824</v>
@@ -6673,7 +6676,7 @@
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A781">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B781">
         <v>825</v>
@@ -6689,7 +6692,7 @@
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A783">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B783">
         <v>827</v>
@@ -6705,7 +6708,7 @@
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A785">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B785">
         <v>829</v>
@@ -6721,7 +6724,7 @@
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A787">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B787">
         <v>831</v>
@@ -6729,7 +6732,7 @@
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A788">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B788">
         <v>833</v>
@@ -6737,7 +6740,7 @@
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A789">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B789">
         <v>834</v>
@@ -6753,7 +6756,7 @@
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A791">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B791">
         <v>837</v>
@@ -6761,7 +6764,7 @@
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A792">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B792">
         <v>838</v>
@@ -6769,7 +6772,7 @@
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A793">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B793">
         <v>839</v>
@@ -6777,7 +6780,7 @@
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A794">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B794">
         <v>840</v>
@@ -6785,7 +6788,7 @@
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A795">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B795">
         <v>841</v>
@@ -6793,7 +6796,7 @@
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A796">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B796">
         <v>842</v>
@@ -6801,7 +6804,7 @@
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A797">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B797">
         <v>843</v>
@@ -6809,7 +6812,7 @@
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A798">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B798">
         <v>844</v>
@@ -6817,7 +6820,7 @@
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A799">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B799">
         <v>845</v>
@@ -6833,7 +6836,7 @@
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A801">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B801">
         <v>847</v>
@@ -6841,7 +6844,7 @@
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A802">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B802">
         <v>848</v>
@@ -6857,7 +6860,7 @@
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A804">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B804">
         <v>850</v>
@@ -6865,7 +6868,7 @@
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A805">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B805">
         <v>851</v>
@@ -6873,7 +6876,7 @@
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A806">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B806">
         <v>853</v>
@@ -6881,7 +6884,7 @@
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A807">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B807">
         <v>854</v>
@@ -6889,7 +6892,7 @@
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A808">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B808">
         <v>855</v>
@@ -6897,7 +6900,7 @@
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A809">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B809">
         <v>856</v>
@@ -6905,7 +6908,7 @@
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A810">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B810">
         <v>857</v>
@@ -6913,7 +6916,7 @@
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A811">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B811">
         <v>858</v>
@@ -6921,7 +6924,7 @@
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A812">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B812">
         <v>859</v>
@@ -6929,7 +6932,7 @@
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A813">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B813">
         <v>860</v>
@@ -6937,7 +6940,7 @@
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A814">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B814">
         <v>861</v>
@@ -6953,7 +6956,7 @@
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A816">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B816">
         <v>863</v>
@@ -6961,7 +6964,7 @@
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A817">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B817">
         <v>864</v>
@@ -6969,7 +6972,7 @@
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A818">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B818">
         <v>865</v>
@@ -6977,7 +6980,7 @@
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A819">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B819">
         <v>866</v>
@@ -6985,7 +6988,7 @@
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A820">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B820">
         <v>867</v>
@@ -7001,7 +7004,7 @@
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A822">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B822">
         <v>869</v>
@@ -7009,7 +7012,7 @@
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A823">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B823">
         <v>870</v>
@@ -7017,7 +7020,7 @@
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A824">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B824">
         <v>871</v>
@@ -7033,7 +7036,7 @@
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A826">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B826">
         <v>873</v>
@@ -7049,7 +7052,7 @@
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A828">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B828">
         <v>875</v>
@@ -7057,7 +7060,7 @@
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A829">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B829">
         <v>876</v>
@@ -7065,7 +7068,7 @@
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A830">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B830">
         <v>877</v>
@@ -7073,7 +7076,7 @@
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A831">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B831">
         <v>878</v>
@@ -7081,7 +7084,7 @@
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A832">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B832">
         <v>879</v>
@@ -7089,7 +7092,7 @@
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A833">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B833">
         <v>880</v>
@@ -7097,7 +7100,7 @@
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A834">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B834">
         <v>881</v>
@@ -7113,7 +7116,7 @@
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A836">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B836">
         <v>883</v>
@@ -7121,7 +7124,7 @@
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A837">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B837">
         <v>884</v>
@@ -7137,7 +7140,7 @@
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A839">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B839">
         <v>886</v>
@@ -7145,7 +7148,7 @@
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A840">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B840">
         <v>887</v>
@@ -7153,7 +7156,7 @@
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A841">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B841">
         <v>888</v>
@@ -7161,7 +7164,7 @@
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A842">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B842">
         <v>889</v>
@@ -7169,7 +7172,7 @@
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A843">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B843">
         <v>890</v>
@@ -7177,7 +7180,7 @@
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A844">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B844">
         <v>892</v>
@@ -7185,7 +7188,7 @@
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A845">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B845">
         <v>893</v>
@@ -7193,7 +7196,7 @@
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A846">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B846">
         <v>894</v>
@@ -7201,7 +7204,7 @@
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A847">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B847">
         <v>895</v>
@@ -7209,7 +7212,7 @@
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A848">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B848">
         <v>896</v>
@@ -7217,7 +7220,7 @@
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A849">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B849">
         <v>897</v>
@@ -7233,7 +7236,7 @@
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A851">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B851">
         <v>899</v>
@@ -7249,7 +7252,7 @@
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A853">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B853">
         <v>901</v>
@@ -7265,7 +7268,7 @@
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A855">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B855">
         <v>903</v>
@@ -7273,7 +7276,7 @@
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A856">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B856">
         <v>904</v>
@@ -7289,7 +7292,7 @@
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A858">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B858">
         <v>906</v>
@@ -7305,7 +7308,7 @@
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A860">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B860">
         <v>908</v>
@@ -7313,7 +7316,7 @@
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A861">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B861">
         <v>909</v>
@@ -7353,7 +7356,7 @@
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A866">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B866">
         <v>914</v>
@@ -7361,7 +7364,7 @@
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A867">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B867">
         <v>915</v>
@@ -7369,7 +7372,7 @@
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A868">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B868">
         <v>916</v>
@@ -7377,7 +7380,7 @@
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A869">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B869">
         <v>917</v>
@@ -7385,7 +7388,7 @@
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A870">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B870">
         <v>918</v>
@@ -7401,7 +7404,7 @@
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A872">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B872">
         <v>920</v>
@@ -7409,7 +7412,7 @@
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A873">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B873">
         <v>921</v>
@@ -7417,7 +7420,7 @@
     </row>
     <row r="874" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A874">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B874">
         <v>922</v>
